--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H2">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I2">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J2">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.13283774514188</v>
+        <v>3.319612666666667</v>
       </c>
       <c r="N2">
-        <v>3.13283774514188</v>
+        <v>9.958838</v>
       </c>
       <c r="O2">
-        <v>0.2136170562772816</v>
+        <v>0.1773188829476472</v>
       </c>
       <c r="P2">
-        <v>0.2136170562772816</v>
+        <v>0.2112475282640173</v>
       </c>
       <c r="Q2">
-        <v>9.676797477117445</v>
+        <v>0.706908197754</v>
       </c>
       <c r="R2">
-        <v>9.676797477117445</v>
+        <v>6.362173779786001</v>
       </c>
       <c r="S2">
-        <v>0.05573286929302074</v>
+        <v>0.003001323201868806</v>
       </c>
       <c r="T2">
-        <v>0.05573286929302074</v>
+        <v>0.004662831834815665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H3">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I3">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J3">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.11681607601028</v>
+        <v>1.225632666666667</v>
       </c>
       <c r="N3">
-        <v>1.11681607601028</v>
+        <v>3.676898</v>
       </c>
       <c r="O3">
-        <v>0.07615171354801729</v>
+        <v>0.0654678232613522</v>
       </c>
       <c r="P3">
-        <v>0.07615171354801729</v>
+        <v>0.07799460280194422</v>
       </c>
       <c r="Q3">
-        <v>3.449652955535061</v>
+        <v>0.260997250734</v>
       </c>
       <c r="R3">
-        <v>3.449652955535061</v>
+        <v>2.348975256606</v>
       </c>
       <c r="S3">
-        <v>0.01986804598646917</v>
+        <v>0.001108117159683189</v>
       </c>
       <c r="T3">
-        <v>0.01986804598646917</v>
+        <v>0.001721561998274301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H4">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I4">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J4">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.949033936179711</v>
+        <v>2.216913333333333</v>
       </c>
       <c r="N4">
-        <v>0.949033936179711</v>
+        <v>6.65074</v>
       </c>
       <c r="O4">
-        <v>0.06471124655859577</v>
+        <v>0.1184176093210107</v>
       </c>
       <c r="P4">
-        <v>0.06471124655859577</v>
+        <v>0.1410759353778654</v>
       </c>
       <c r="Q4">
-        <v>2.931402755716848</v>
+        <v>0.4720894774200001</v>
       </c>
       <c r="R4">
-        <v>2.931402755716848</v>
+        <v>4.248805296780001</v>
       </c>
       <c r="S4">
-        <v>0.01688321854579463</v>
+        <v>0.00200435234227095</v>
       </c>
       <c r="T4">
-        <v>0.01688321854579463</v>
+        <v>0.003113945843589577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H5">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I5">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J5">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.825620425196226</v>
+        <v>2.938529666666666</v>
       </c>
       <c r="N5">
-        <v>0.825620425196226</v>
+        <v>8.815588999999999</v>
       </c>
       <c r="O5">
-        <v>0.05629611846521854</v>
+        <v>0.1569631310405457</v>
       </c>
       <c r="P5">
-        <v>0.05629611846521854</v>
+        <v>0.1869968550991049</v>
       </c>
       <c r="Q5">
-        <v>2.550199626515815</v>
+        <v>0.625756953987</v>
       </c>
       <c r="R5">
-        <v>2.550199626515815</v>
+        <v>5.631812585883</v>
       </c>
       <c r="S5">
-        <v>0.01468770456256922</v>
+        <v>0.002656779014162037</v>
       </c>
       <c r="T5">
-        <v>0.01468770456256922</v>
+        <v>0.004127550727489572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H6">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I6">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J6">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.64136411788671</v>
+        <v>9.020457499999999</v>
       </c>
       <c r="N6">
-        <v>8.64136411788671</v>
+        <v>18.040915</v>
       </c>
       <c r="O6">
-        <v>0.5892238651508868</v>
+        <v>0.4818325534294442</v>
       </c>
       <c r="P6">
-        <v>0.5892238651508868</v>
+        <v>0.3826850784570683</v>
       </c>
       <c r="Q6">
-        <v>26.69168890871886</v>
+        <v>1.9208974041675</v>
       </c>
       <c r="R6">
-        <v>26.69168890871886</v>
+        <v>11.525384425005</v>
       </c>
       <c r="S6">
-        <v>0.1537290010127123</v>
+        <v>0.008155562441990165</v>
       </c>
       <c r="T6">
-        <v>0.1537290010127123</v>
+        <v>0.008446944592451794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.750260491414529</v>
+        <v>3.123305</v>
       </c>
       <c r="H7">
-        <v>8.750260491414529</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I7">
-        <v>0.7390991605994338</v>
+        <v>0.2482541803554897</v>
       </c>
       <c r="J7">
-        <v>0.7390991605994338</v>
+        <v>0.3237404069008122</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.13283774514188</v>
+        <v>3.319612666666667</v>
       </c>
       <c r="N7">
-        <v>3.13283774514188</v>
+        <v>9.958838</v>
       </c>
       <c r="O7">
-        <v>0.2136170562772816</v>
+        <v>0.1773188829476472</v>
       </c>
       <c r="P7">
-        <v>0.2136170562772816</v>
+        <v>0.2112475282640173</v>
       </c>
       <c r="Q7">
-        <v>27.41314634732717</v>
+        <v>10.36816283986333</v>
       </c>
       <c r="R7">
-        <v>27.41314634732717</v>
+        <v>93.31346555877001</v>
       </c>
       <c r="S7">
-        <v>0.1578841869842609</v>
+        <v>0.04402015394771918</v>
       </c>
       <c r="T7">
-        <v>0.1578841869842609</v>
+        <v>0.06838936075698379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.750260491414529</v>
+        <v>3.123305</v>
       </c>
       <c r="H8">
-        <v>8.750260491414529</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I8">
-        <v>0.7390991605994338</v>
+        <v>0.2482541803554897</v>
       </c>
       <c r="J8">
-        <v>0.7390991605994338</v>
+        <v>0.3237404069008122</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.11681607601028</v>
+        <v>1.225632666666667</v>
       </c>
       <c r="N8">
-        <v>1.11681607601028</v>
+        <v>3.676898</v>
       </c>
       <c r="O8">
-        <v>0.07615171354801729</v>
+        <v>0.0654678232613522</v>
       </c>
       <c r="P8">
-        <v>0.07615171354801729</v>
+        <v>0.07799460280194422</v>
       </c>
       <c r="Q8">
-        <v>9.772431586089359</v>
+        <v>3.828024635963333</v>
       </c>
       <c r="R8">
-        <v>9.772431586089359</v>
+        <v>34.45222172367</v>
       </c>
       <c r="S8">
-        <v>0.05628366756154812</v>
+        <v>0.01625266080340505</v>
       </c>
       <c r="T8">
-        <v>0.05628366756154812</v>
+        <v>0.02525000444716865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.750260491414529</v>
+        <v>3.123305</v>
       </c>
       <c r="H9">
-        <v>8.750260491414529</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I9">
-        <v>0.7390991605994338</v>
+        <v>0.2482541803554897</v>
       </c>
       <c r="J9">
-        <v>0.7390991605994338</v>
+        <v>0.3237404069008122</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.949033936179711</v>
+        <v>2.216913333333333</v>
       </c>
       <c r="N9">
-        <v>0.949033936179711</v>
+        <v>6.65074</v>
       </c>
       <c r="O9">
-        <v>0.06471124655859577</v>
+        <v>0.1184176093210107</v>
       </c>
       <c r="P9">
-        <v>0.06471124655859577</v>
+        <v>0.1410759353778654</v>
       </c>
       <c r="Q9">
-        <v>8.304294156764943</v>
+        <v>6.924096498566667</v>
       </c>
       <c r="R9">
-        <v>8.304294156764943</v>
+        <v>62.3168684871</v>
       </c>
       <c r="S9">
-        <v>0.04782802801280113</v>
+        <v>0.0293976665416441</v>
       </c>
       <c r="T9">
-        <v>0.04782802801280113</v>
+        <v>0.04567198072314283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.750260491414529</v>
+        <v>3.123305</v>
       </c>
       <c r="H10">
-        <v>8.750260491414529</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I10">
-        <v>0.7390991605994338</v>
+        <v>0.2482541803554897</v>
       </c>
       <c r="J10">
-        <v>0.7390991605994338</v>
+        <v>0.3237404069008122</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.825620425196226</v>
+        <v>2.938529666666666</v>
       </c>
       <c r="N10">
-        <v>0.825620425196226</v>
+        <v>8.815588999999999</v>
       </c>
       <c r="O10">
-        <v>0.05629611846521854</v>
+        <v>0.1569631310405457</v>
       </c>
       <c r="P10">
-        <v>0.05629611846521854</v>
+        <v>0.1869968550991049</v>
       </c>
       <c r="Q10">
-        <v>7.224393787499402</v>
+        <v>9.177924400548333</v>
       </c>
       <c r="R10">
-        <v>7.224393787499402</v>
+        <v>82.601319604935</v>
       </c>
       <c r="S10">
-        <v>0.04160841390264931</v>
+        <v>0.038966753442502</v>
       </c>
       <c r="T10">
-        <v>0.04160841390264931</v>
+        <v>0.06053843795895645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.123305</v>
+      </c>
+      <c r="H11">
+        <v>9.369915000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2482541803554897</v>
+      </c>
+      <c r="J11">
+        <v>0.3237404069008122</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.020457499999999</v>
+      </c>
+      <c r="N11">
+        <v>18.040915</v>
+      </c>
+      <c r="O11">
+        <v>0.4818325534294442</v>
+      </c>
+      <c r="P11">
+        <v>0.3826850784570683</v>
+      </c>
+      <c r="Q11">
+        <v>28.1736400120375</v>
+      </c>
+      <c r="R11">
+        <v>169.041840072225</v>
+      </c>
+      <c r="S11">
+        <v>0.1196169456202194</v>
+      </c>
+      <c r="T11">
+        <v>0.1238906230145605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.15464</v>
+      </c>
+      <c r="H12">
+        <v>0.46392</v>
+      </c>
+      <c r="I12">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J12">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.319612666666667</v>
+      </c>
+      <c r="N12">
+        <v>9.958838</v>
+      </c>
+      <c r="O12">
+        <v>0.1773188829476472</v>
+      </c>
+      <c r="P12">
+        <v>0.2112475282640173</v>
+      </c>
+      <c r="Q12">
+        <v>0.5133449027733333</v>
+      </c>
+      <c r="R12">
+        <v>4.62010412496</v>
+      </c>
+      <c r="S12">
+        <v>0.002179510680665287</v>
+      </c>
+      <c r="T12">
+        <v>0.003386070443795906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.15464</v>
+      </c>
+      <c r="H13">
+        <v>0.46392</v>
+      </c>
+      <c r="I13">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J13">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.225632666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.676898</v>
+      </c>
+      <c r="O13">
+        <v>0.0654678232613522</v>
+      </c>
+      <c r="P13">
+        <v>0.07799460280194422</v>
+      </c>
+      <c r="Q13">
+        <v>0.1895318355733333</v>
+      </c>
+      <c r="R13">
+        <v>1.70578652016</v>
+      </c>
+      <c r="S13">
+        <v>0.0008046961365087807</v>
+      </c>
+      <c r="T13">
+        <v>0.001250169512010566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.15464</v>
+      </c>
+      <c r="H14">
+        <v>0.46392</v>
+      </c>
+      <c r="I14">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J14">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.216913333333333</v>
+      </c>
+      <c r="N14">
+        <v>6.65074</v>
+      </c>
+      <c r="O14">
+        <v>0.1184176093210107</v>
+      </c>
+      <c r="P14">
+        <v>0.1410759353778654</v>
+      </c>
+      <c r="Q14">
+        <v>0.3428234778666667</v>
+      </c>
+      <c r="R14">
+        <v>3.0854113008</v>
+      </c>
+      <c r="S14">
+        <v>0.00145552712719374</v>
+      </c>
+      <c r="T14">
+        <v>0.002261295358290915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.15464</v>
+      </c>
+      <c r="H15">
+        <v>0.46392</v>
+      </c>
+      <c r="I15">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J15">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.938529666666666</v>
+      </c>
+      <c r="N15">
+        <v>8.815588999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1569631310405457</v>
+      </c>
+      <c r="P15">
+        <v>0.1869968550991049</v>
+      </c>
+      <c r="Q15">
+        <v>0.4544142276533333</v>
+      </c>
+      <c r="R15">
+        <v>4.08972804888</v>
+      </c>
+      <c r="S15">
+        <v>0.001929308457658957</v>
+      </c>
+      <c r="T15">
+        <v>0.002997358261832585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.15464</v>
+      </c>
+      <c r="H16">
+        <v>0.46392</v>
+      </c>
+      <c r="I16">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J16">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.020457499999999</v>
+      </c>
+      <c r="N16">
+        <v>18.040915</v>
+      </c>
+      <c r="O16">
+        <v>0.4818325534294442</v>
+      </c>
+      <c r="P16">
+        <v>0.3826850784570683</v>
+      </c>
+      <c r="Q16">
+        <v>1.3949235478</v>
+      </c>
+      <c r="R16">
+        <v>8.369541286799999</v>
+      </c>
+      <c r="S16">
+        <v>0.005922432958263993</v>
+      </c>
+      <c r="T16">
+        <v>0.006134029799514181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.868895</v>
+      </c>
+      <c r="I17">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J17">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.319612666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.958838</v>
+      </c>
+      <c r="O17">
+        <v>0.1773188829476472</v>
+      </c>
+      <c r="P17">
+        <v>0.2112475282640173</v>
+      </c>
+      <c r="Q17">
+        <v>0.9614649493344445</v>
+      </c>
+      <c r="R17">
+        <v>8.653184544009999</v>
+      </c>
+      <c r="S17">
+        <v>0.004082095906355976</v>
+      </c>
+      <c r="T17">
+        <v>0.006341911705169088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>8.750260491414529</v>
-      </c>
-      <c r="H11">
-        <v>8.750260491414529</v>
-      </c>
-      <c r="I11">
-        <v>0.7390991605994338</v>
-      </c>
-      <c r="J11">
-        <v>0.7390991605994338</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.64136411788671</v>
-      </c>
-      <c r="N11">
-        <v>8.64136411788671</v>
-      </c>
-      <c r="O11">
-        <v>0.5892238651508868</v>
-      </c>
-      <c r="P11">
-        <v>0.5892238651508868</v>
-      </c>
-      <c r="Q11">
-        <v>75.61418703267124</v>
-      </c>
-      <c r="R11">
-        <v>75.61418703267124</v>
-      </c>
-      <c r="S11">
-        <v>0.4354948641381744</v>
-      </c>
-      <c r="T11">
-        <v>0.4354948641381744</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.868895</v>
+      </c>
+      <c r="I18">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J18">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.225632666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.676898</v>
+      </c>
+      <c r="O18">
+        <v>0.0654678232613522</v>
+      </c>
+      <c r="P18">
+        <v>0.07799460280194422</v>
+      </c>
+      <c r="Q18">
+        <v>0.3549820319677778</v>
+      </c>
+      <c r="R18">
+        <v>3.19483828771</v>
+      </c>
+      <c r="S18">
+        <v>0.001507148753086301</v>
+      </c>
+      <c r="T18">
+        <v>0.002341494305350967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.868895</v>
+      </c>
+      <c r="I19">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J19">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.216913333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.65074</v>
+      </c>
+      <c r="O19">
+        <v>0.1184176093210107</v>
+      </c>
+      <c r="P19">
+        <v>0.1410759353778654</v>
+      </c>
+      <c r="Q19">
+        <v>0.6420883035888889</v>
+      </c>
+      <c r="R19">
+        <v>5.7787947323</v>
+      </c>
+      <c r="S19">
+        <v>0.002726117096014409</v>
+      </c>
+      <c r="T19">
+        <v>0.00423527381949945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.868895</v>
+      </c>
+      <c r="I20">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J20">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.938529666666666</v>
+      </c>
+      <c r="N20">
+        <v>8.815588999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1569631310405457</v>
+      </c>
+      <c r="P20">
+        <v>0.1869968550991049</v>
+      </c>
+      <c r="Q20">
+        <v>0.851091244906111</v>
+      </c>
+      <c r="R20">
+        <v>7.659821204154999</v>
+      </c>
+      <c r="S20">
+        <v>0.003613481790648344</v>
+      </c>
+      <c r="T20">
+        <v>0.005613876545341922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.868895</v>
+      </c>
+      <c r="I21">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J21">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.020457499999999</v>
+      </c>
+      <c r="N21">
+        <v>18.040915</v>
+      </c>
+      <c r="O21">
+        <v>0.4818325534294442</v>
+      </c>
+      <c r="P21">
+        <v>0.3826850784570683</v>
+      </c>
+      <c r="Q21">
+        <v>2.612610139820833</v>
+      </c>
+      <c r="R21">
+        <v>15.675660838925</v>
+      </c>
+      <c r="S21">
+        <v>0.01109237020449817</v>
+      </c>
+      <c r="T21">
+        <v>0.01148867870031228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H22">
+        <v>17.601103</v>
+      </c>
+      <c r="I22">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J22">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.319612666666667</v>
+      </c>
+      <c r="N22">
+        <v>9.958838</v>
+      </c>
+      <c r="O22">
+        <v>0.1773188829476472</v>
+      </c>
+      <c r="P22">
+        <v>0.2112475282640173</v>
+      </c>
+      <c r="Q22">
+        <v>29.21442223305234</v>
+      </c>
+      <c r="R22">
+        <v>175.286533398314</v>
+      </c>
+      <c r="S22">
+        <v>0.124035799211038</v>
+      </c>
+      <c r="T22">
+        <v>0.1284673535232528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H23">
+        <v>17.601103</v>
+      </c>
+      <c r="I23">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J23">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.225632666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.676898</v>
+      </c>
+      <c r="O23">
+        <v>0.0654678232613522</v>
+      </c>
+      <c r="P23">
+        <v>0.07799460280194422</v>
+      </c>
+      <c r="Q23">
+        <v>10.78624340308233</v>
+      </c>
+      <c r="R23">
+        <v>64.71746041849401</v>
+      </c>
+      <c r="S23">
+        <v>0.04579520040866887</v>
+      </c>
+      <c r="T23">
+        <v>0.04743137253913974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H24">
+        <v>17.601103</v>
+      </c>
+      <c r="I24">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J24">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.216913333333333</v>
+      </c>
+      <c r="N24">
+        <v>6.65074</v>
+      </c>
+      <c r="O24">
+        <v>0.1184176093210107</v>
+      </c>
+      <c r="P24">
+        <v>0.1410759353778654</v>
+      </c>
+      <c r="Q24">
+        <v>19.51005996103667</v>
+      </c>
+      <c r="R24">
+        <v>117.06035976622</v>
+      </c>
+      <c r="S24">
+        <v>0.08283394621388747</v>
+      </c>
+      <c r="T24">
+        <v>0.08579343963334263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H25">
+        <v>17.601103</v>
+      </c>
+      <c r="I25">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J25">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.938529666666666</v>
+      </c>
+      <c r="N25">
+        <v>8.815588999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1569631310405457</v>
+      </c>
+      <c r="P25">
+        <v>0.1869968550991049</v>
+      </c>
+      <c r="Q25">
+        <v>25.86068166577783</v>
+      </c>
+      <c r="R25">
+        <v>155.164089994667</v>
+      </c>
+      <c r="S25">
+        <v>0.1097968083355744</v>
+      </c>
+      <c r="T25">
+        <v>0.1137196316054844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H26">
+        <v>17.601103</v>
+      </c>
+      <c r="I26">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J26">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.020457499999999</v>
+      </c>
+      <c r="N26">
+        <v>18.040915</v>
+      </c>
+      <c r="O26">
+        <v>0.4818325534294442</v>
+      </c>
+      <c r="P26">
+        <v>0.3826850784570683</v>
+      </c>
+      <c r="Q26">
+        <v>79.38500078231125</v>
+      </c>
+      <c r="R26">
+        <v>317.540003129245</v>
+      </c>
+      <c r="S26">
+        <v>0.3370452422044725</v>
+      </c>
+      <c r="T26">
+        <v>0.2327248023502295</v>
       </c>
     </row>
   </sheetData>
